--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1695.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1695.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6151190721597567</v>
+        <v>0.5318679213523865</v>
       </c>
       <c r="B1">
+        <v>1.446839451789856</v>
+      </c>
+      <c r="C1">
         <v>-1</v>
       </c>
-      <c r="C1">
-        <v>2.671616197226178</v>
-      </c>
       <c r="D1">
-        <v>1.861698753433587</v>
+        <v>1.533384084701538</v>
       </c>
       <c r="E1">
-        <v>1.577847605653776</v>
+        <v>1.441953897476196</v>
       </c>
     </row>
   </sheetData>
